--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW22.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW22.xlsx
@@ -1699,37 +1699,37 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3.2016100246076684</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.246981562662363</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.6558993899914216</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>3.149407945497504</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.852746352345589</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.1047534978571205</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.0522404774575285</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7617757634403546</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2002096587213327</v>
+        <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.223883833176349</v>
+        <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.871268815607959</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.400514822215147</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4686192590560204</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.46678004868807177</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.40093333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.47819827274085097</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.45673065933489776</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.476748961014747</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.41393023336146106</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.5056668598047126</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.46737880219535644</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3989920934309885</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7767889149216375</v>
+        <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6293093109954475</v>
+        <v>0.0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6813430006868832</v>
+        <v>0.0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7811775539288669</v>
+        <v>0.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7043672271459238</v>
+        <v>0.0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.7405930169009921</v>
+        <v>0.0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7296115076331707</v>
+        <v>0.0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.7427705661492082</v>
+        <v>0.0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.7504839994849198</v>
+        <v>0.0</v>
       </c>
       <c r="K116" t="n">
-        <v>0.7482087888469855</v>
+        <v>0.0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.72263653826949</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -5803,37 +5803,37 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8854420469130033</v>
+        <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7271514176127761</v>
+        <v>0.0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8564377808469507</v>
+        <v>0.0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7393528678471005</v>
+        <v>0.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8674531652173741</v>
+        <v>0.0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.860529366071178</v>
+        <v>0.0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8586565901575001</v>
+        <v>0.0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.8391568115224367</v>
+        <v>0.0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.7174884117894539</v>
+        <v>0.0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.8251291158808088</v>
+        <v>0.0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.7047262863289799</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4752039513123768</v>
+        <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.39025165797885136</v>
+        <v>0.0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4596377808469506</v>
+        <v>0.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3968</v>
+        <v>0.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.4655495784584369</v>
+        <v>0.0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.46183367551048377</v>
+        <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.4608285837405536</v>
+        <v>0.0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.4503633343327522</v>
+        <v>0.0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.38506566239076473</v>
+        <v>0.0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.4428348727920457</v>
+        <v>0.0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.37821641407789647</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>2.936613231688309</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>2.9200349294870853</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>2.9677933869901594</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>2.8145509977866054</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>2.4906199996937897</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>2.9435169795194573</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>2.508364265001207</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>2.8299267288899537</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.9266410181070754</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>3.0965619268967055</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>2.7427453030996376</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7513,37 +7513,37 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8596213772819301</v>
+        <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.8718034805775229</v>
+        <v>0.0</v>
       </c>
       <c r="D196" t="n">
-        <v>0.7130999322212691</v>
+        <v>0.0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.8456052969983363</v>
+        <v>0.0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7659526705598146</v>
+        <v>0.0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.8336157300344166</v>
+        <v>0.0</v>
       </c>
       <c r="H196" t="n">
-        <v>0.8195161630746138</v>
+        <v>0.0</v>
       </c>
       <c r="I196" t="n">
-        <v>0.7415273775585384</v>
+        <v>0.0</v>
       </c>
       <c r="J196" t="n">
-        <v>0.8592453838153123</v>
+        <v>0.0</v>
       </c>
       <c r="K196" t="n">
-        <v>0.8656018189509526</v>
+        <v>0.0</v>
       </c>
       <c r="L196" t="n">
-        <v>0.7709258888024717</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>1.2091938914091755</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>1.0188343921078489</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>1.249610120247797</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>1.1986959436968325</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>1.1636004491644316</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>1.1727182686897288</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>1.008095809191867</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>1.184201434197579</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.017975797193719</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>1.2062810137743194</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>1.1892497952793226</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.4190595354841267</v>
+        <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>1.662553438698616</v>
+        <v>0.0</v>
       </c>
       <c r="D224" t="n">
-        <v>1.4233295688764325</v>
+        <v>0.0</v>
       </c>
       <c r="E224" t="n">
-        <v>1.6442149287555152</v>
+        <v>0.0</v>
       </c>
       <c r="F224" t="n">
-        <v>1.5929420580406506</v>
+        <v>0.0</v>
       </c>
       <c r="G224" t="n">
-        <v>1.380392438855612</v>
+        <v>0.0</v>
       </c>
       <c r="H224" t="n">
-        <v>1.6436198912943396</v>
+        <v>0.0</v>
       </c>
       <c r="I224" t="n">
-        <v>1.6852433733648924</v>
+        <v>0.0</v>
       </c>
       <c r="J224" t="n">
-        <v>1.4191523139362114</v>
+        <v>0.0</v>
       </c>
       <c r="K224" t="n">
-        <v>1.6315858605775568</v>
+        <v>0.0</v>
       </c>
       <c r="L224" t="n">
-        <v>1.6730461946731419</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>0.7943534515366456</v>
+        <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>0.7933679017689227</v>
+        <v>0.0</v>
       </c>
       <c r="D235" t="n">
-        <v>0.7935999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.775336168600972</v>
+        <v>0.0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.6475164305537796</v>
+        <v>0.0</v>
       </c>
       <c r="G235" t="n">
-        <v>0.7854462010955012</v>
+        <v>0.0</v>
       </c>
       <c r="H235" t="n">
-        <v>0.7857340042686294</v>
+        <v>0.0</v>
       </c>
       <c r="I235" t="n">
-        <v>0.7668596757029162</v>
+        <v>0.0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.7473711788782232</v>
+        <v>0.0</v>
       </c>
       <c r="K235" t="n">
-        <v>0.770135141161765</v>
+        <v>0.0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.6995517613317574</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5.072432925335772</v>
+        <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>5.038789830354498</v>
+        <v>0.0</v>
       </c>
       <c r="D266" t="n">
-        <v>4.9104</v>
+        <v>0.0</v>
       </c>
       <c r="E266" t="n">
-        <v>5.1830662796024205</v>
+        <v>0.0</v>
       </c>
       <c r="F266" t="n">
-        <v>5.081577937904084</v>
+        <v>0.0</v>
       </c>
       <c r="G266" t="n">
-        <v>4.561934983599076</v>
+        <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>4.359616626029766</v>
+        <v>0.0</v>
       </c>
       <c r="I266" t="n">
-        <v>4.254104816886854</v>
+        <v>0.0</v>
       </c>
       <c r="J266" t="n">
-        <v>5.062651686991936</v>
+        <v>0.0</v>
       </c>
       <c r="K266" t="n">
-        <v>4.851258741210807</v>
+        <v>0.0</v>
       </c>
       <c r="L266" t="n">
-        <v>5.083906194393877</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>0.29596280652567014</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>0.28190591316280883</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.2886863310638726</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>0.24319999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>0.25225698628456455</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>0.25440633572149257</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>0.29656523787634104</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>0.29672524465746375</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>0.28801503058861566</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>0.2932370885096651</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>0.3101604111094063</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>2.317603697524921</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>1.8775880526011912</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>2.032834181000051</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>2.3306975069175064</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>2.101528560321243</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>2.2096107209563187</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>2.1768466250808327</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>2.2161075904304632</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>2.239121154702632</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>2.2323329056869303</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>2.156036319376329</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>0.27243906765297177</v>
+        <v>0.0</v>
       </c>
       <c r="C397" t="n">
-        <v>0.260302581106623</v>
+        <v>0.0</v>
       </c>
       <c r="D397" t="n">
-        <v>0.279550983218754</v>
+        <v>0.0</v>
       </c>
       <c r="E397" t="n">
-        <v>0.24573333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F397" t="n">
-        <v>0.26572160593180394</v>
+        <v>0.0</v>
       </c>
       <c r="G397" t="n">
-        <v>0.27217577218166467</v>
+        <v>0.0</v>
       </c>
       <c r="H397" t="n">
-        <v>0.2689121240975564</v>
+        <v>0.0</v>
       </c>
       <c r="I397" t="n">
-        <v>0.27521358292100084</v>
+        <v>0.0</v>
       </c>
       <c r="J397" t="n">
-        <v>0.274657838405958</v>
+        <v>0.0</v>
       </c>
       <c r="K397" t="n">
-        <v>0.23292195605962854</v>
+        <v>0.0</v>
       </c>
       <c r="L397" t="n">
-        <v>0.2759117262104225</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>4.173857547552945</v>
+        <v>0.0</v>
       </c>
       <c r="C430" t="n">
-        <v>4.4112759803969475</v>
+        <v>0.0</v>
       </c>
       <c r="D430" t="n">
-        <v>4.313217288475709</v>
+        <v>0.0</v>
       </c>
       <c r="E430" t="n">
-        <v>4.07912812809977</v>
+        <v>0.0</v>
       </c>
       <c r="F430" t="n">
-        <v>4.263608401323244</v>
+        <v>0.0</v>
       </c>
       <c r="G430" t="n">
-        <v>4.198149767360684</v>
+        <v>0.0</v>
       </c>
       <c r="H430" t="n">
-        <v>3.6160591908190356</v>
+        <v>0.0</v>
       </c>
       <c r="I430" t="n">
-        <v>3.7924936943029985</v>
+        <v>0.0</v>
       </c>
       <c r="J430" t="n">
-        <v>4.200343410313872</v>
+        <v>0.0</v>
       </c>
       <c r="K430" t="n">
-        <v>4.30042315223936</v>
+        <v>0.0</v>
       </c>
       <c r="L430" t="n">
-        <v>4.283360087259829</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="431">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>0.23980595928640758</v>
+        <v>0.0</v>
       </c>
       <c r="C513" t="n">
-        <v>0.21692601175634496</v>
+        <v>0.0</v>
       </c>
       <c r="D513" t="n">
-        <v>0.2343414394159355</v>
+        <v>0.0</v>
       </c>
       <c r="E513" t="n">
-        <v>0.2406666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.2149521202729079</v>
+        <v>0.0</v>
       </c>
       <c r="G513" t="n">
-        <v>0.2113264218859428</v>
+        <v>0.0</v>
       </c>
       <c r="H513" t="n">
-        <v>0.24978171056191348</v>
+        <v>0.0</v>
       </c>
       <c r="I513" t="n">
-        <v>0.2499714590805286</v>
+        <v>0.0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.2488626704905493</v>
+        <v>0.0</v>
       </c>
       <c r="K513" t="n">
-        <v>0.21158468553265175</v>
+        <v>0.0</v>
       </c>
       <c r="L513" t="n">
-        <v>0.2130180366776512</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>0.7847506981989132</v>
+        <v>0.0</v>
       </c>
       <c r="C523" t="n">
-        <v>0.779545810787932</v>
+        <v>0.0</v>
       </c>
       <c r="D523" t="n">
-        <v>0.7596827568066589</v>
+        <v>0.0</v>
       </c>
       <c r="E523" t="n">
-        <v>0.8018666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F523" t="n">
-        <v>0.7861655133583559</v>
+        <v>0.0</v>
       </c>
       <c r="G523" t="n">
-        <v>0.7057721050654296</v>
+        <v>0.0</v>
       </c>
       <c r="H523" t="n">
-        <v>0.6744716473367621</v>
+        <v>0.0</v>
       </c>
       <c r="I523" t="n">
-        <v>0.6581480276631418</v>
+        <v>0.0</v>
       </c>
       <c r="J523" t="n">
-        <v>0.7832374532270112</v>
+        <v>0.0</v>
       </c>
       <c r="K523" t="n">
-        <v>0.7505330756161264</v>
+        <v>0.0</v>
       </c>
       <c r="L523" t="n">
-        <v>0.7865257154414284</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="524">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>2.3624555587450646</v>
+        <v>0.0</v>
       </c>
       <c r="C550" t="n">
-        <v>2.2502496155266627</v>
+        <v>0.0</v>
       </c>
       <c r="D550" t="n">
-        <v>2.3043727540014736</v>
+        <v>0.0</v>
       </c>
       <c r="E550" t="n">
-        <v>1.9412884971306907</v>
+        <v>0.0</v>
       </c>
       <c r="F550" t="n">
-        <v>2.013583823170558</v>
+        <v>0.0</v>
       </c>
       <c r="G550" t="n">
-        <v>2.0307405145283814</v>
+        <v>0.0</v>
       </c>
       <c r="H550" t="n">
-        <v>2.367264329515493</v>
+        <v>0.0</v>
       </c>
       <c r="I550" t="n">
-        <v>2.3685415471292126</v>
+        <v>0.0</v>
       </c>
       <c r="J550" t="n">
-        <v>2.2990142511612817</v>
+        <v>0.0</v>
       </c>
       <c r="K550" t="n">
-        <v>2.3406981367430397</v>
+        <v>0.0</v>
       </c>
       <c r="L550" t="n">
-        <v>2.4757846971711213</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="551">
@@ -21193,37 +21193,37 @@
         <v>555.0</v>
       </c>
       <c r="B556" t="n">
-        <v>0.4027586863370549</v>
+        <v>0.0</v>
       </c>
       <c r="C556" t="n">
-        <v>0.4880072562000874</v>
+        <v>0.0</v>
       </c>
       <c r="D556" t="n">
-        <v>0.40534866112623774</v>
+        <v>0.0</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4009333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F556" t="n">
-        <v>0.46958442029338726</v>
+        <v>0.0</v>
       </c>
       <c r="G556" t="n">
-        <v>0.469291108038401</v>
+        <v>0.0</v>
       </c>
       <c r="H556" t="n">
-        <v>0.4597222132856328</v>
+        <v>0.0</v>
       </c>
       <c r="I556" t="n">
-        <v>0.44398343942662416</v>
+        <v>0.0</v>
       </c>
       <c r="J556" t="n">
-        <v>0.45810125795344675</v>
+        <v>0.0</v>
       </c>
       <c r="K556" t="n">
-        <v>0.4149290016042287</v>
+        <v>0.0</v>
       </c>
       <c r="L556" t="n">
-        <v>0.46812855056326763</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="557">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>1.2213249522800569</v>
+        <v>0.0</v>
       </c>
       <c r="C583" t="n">
-        <v>1.2144301069097823</v>
+        <v>0.0</v>
       </c>
       <c r="D583" t="n">
-        <v>1.2342926462464239</v>
+        <v>0.0</v>
       </c>
       <c r="E583" t="n">
-        <v>1.1705597883876748</v>
+        <v>0.0</v>
       </c>
       <c r="F583" t="n">
-        <v>1.035838264109761</v>
+        <v>0.0</v>
       </c>
       <c r="G583" t="n">
-        <v>1.2241961916381876</v>
+        <v>0.0</v>
       </c>
       <c r="H583" t="n">
-        <v>1.0432180285765194</v>
+        <v>0.0</v>
       </c>
       <c r="I583" t="n">
-        <v>1.1769544895534363</v>
+        <v>0.0</v>
       </c>
       <c r="J583" t="n">
-        <v>1.217177551068075</v>
+        <v>0.0</v>
       </c>
       <c r="K583" t="n">
-        <v>1.2878469342811878</v>
+        <v>0.0</v>
       </c>
       <c r="L583" t="n">
-        <v>1.1406961053903133</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="584">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>0.23289074394535517</v>
+        <v>0.0</v>
       </c>
       <c r="C584" t="n">
-        <v>0.24613809482435128</v>
+        <v>0.0</v>
       </c>
       <c r="D584" t="n">
-        <v>0.24066666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="E584" t="n">
-        <v>0.22760508081032654</v>
+        <v>0.0</v>
       </c>
       <c r="F584" t="n">
-        <v>0.23789861564824788</v>
+        <v>0.0</v>
       </c>
       <c r="G584" t="n">
-        <v>0.23424618865774724</v>
+        <v>0.0</v>
       </c>
       <c r="H584" t="n">
-        <v>0.20176699983304872</v>
+        <v>0.0</v>
       </c>
       <c r="I584" t="n">
-        <v>0.2116116009738087</v>
+        <v>0.0</v>
       </c>
       <c r="J584" t="n">
-        <v>0.23436858841229039</v>
+        <v>0.0</v>
       </c>
       <c r="K584" t="n">
-        <v>0.2399527860724503</v>
+        <v>0.0</v>
       </c>
       <c r="L584" t="n">
-        <v>0.2390007100009033</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="585">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>3.066936386774959</v>
+        <v>0.0</v>
       </c>
       <c r="C593" t="n">
-        <v>2.665738167683397</v>
+        <v>0.0</v>
       </c>
       <c r="D593" t="n">
-        <v>2.634584840610878</v>
+        <v>0.0</v>
       </c>
       <c r="E593" t="n">
-        <v>3.240533333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F593" t="n">
-        <v>2.641894926561525</v>
+        <v>0.0</v>
       </c>
       <c r="G593" t="n">
-        <v>2.9120299617208327</v>
+        <v>0.0</v>
       </c>
       <c r="H593" t="n">
-        <v>2.7359281393257864</v>
+        <v>0.0</v>
       </c>
       <c r="I593" t="n">
-        <v>2.9907063976105768</v>
+        <v>0.0</v>
       </c>
       <c r="J593" t="n">
-        <v>2.5751296922679994</v>
+        <v>0.0</v>
       </c>
       <c r="K593" t="n">
-        <v>3.0040935600074263</v>
+        <v>0.0</v>
       </c>
       <c r="L593" t="n">
-        <v>2.674827514414513</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="594">
@@ -22941,37 +22941,37 @@
         <v>601.0</v>
       </c>
       <c r="B602" t="n">
-        <v>1.4487883010611697</v>
+        <v>0.0</v>
       </c>
       <c r="C602" t="n">
-        <v>1.697383310316029</v>
+        <v>0.0</v>
       </c>
       <c r="D602" t="n">
-        <v>1.4531477900531538</v>
+        <v>0.0</v>
       </c>
       <c r="E602" t="n">
-        <v>1.678660615460669</v>
+        <v>0.0</v>
       </c>
       <c r="F602" t="n">
-        <v>1.6263135973151792</v>
+        <v>0.0</v>
       </c>
       <c r="G602" t="n">
-        <v>1.4093111432460241</v>
+        <v>0.0</v>
       </c>
       <c r="H602" t="n">
-        <v>1.6780531121876294</v>
+        <v>0.0</v>
       </c>
       <c r="I602" t="n">
-        <v>1.7205485906121292</v>
+        <v>0.0</v>
       </c>
       <c r="J602" t="n">
-        <v>1.4488830231870635</v>
+        <v>0.0</v>
       </c>
       <c r="K602" t="n">
-        <v>1.6657669730362248</v>
+        <v>0.0</v>
       </c>
       <c r="L602" t="n">
-        <v>1.7080958855968094</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="603">
